--- a/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
@@ -4,17 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Salary" sheetId="2" r:id="rId2"/>
+    <sheet name="TempHelp" sheetId="3" r:id="rId3"/>
+    <sheet name="Overtime" sheetId="4" r:id="rId4"/>
+    <sheet name="Retirement" sheetId="5" r:id="rId5"/>
+    <sheet name="SocialSecurity" sheetId="6" r:id="rId6"/>
+    <sheet name="MedicalAndLifeIns" sheetId="7" r:id="rId7"/>
+    <sheet name="IndustIns" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NAME</t>
   </si>
@@ -41,6 +48,12 @@
   </si>
   <si>
     <t>Totals (%)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -381,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,4 +439,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>NAME</t>
   </si>
@@ -394,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -445,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -464,72 +464,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
+++ b/GRis/Content/ExcelTemplates/ServerSalariesPercentageMonthlyReportTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>NAME</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Retirement</t>
+  </si>
+  <si>
+    <t>SocialSecurity</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>L &amp; I</t>
   </si>
 </sst>
 </file>
@@ -445,6 +463,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,20 +495,41 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,20 +539,20 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,20 +562,20 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,21 +585,19 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -546,53 +606,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
